--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_3_2.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_3_2.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">

--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_3_2.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_3_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91989.55041322313</v>
+        <v>-263724.5473518896</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13476767.25690909</v>
+        <v>10999139.2345434</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30789066.36991068</v>
+        <v>28311438.34754492</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.358744596005241e-10</v>
+        <v>1380840.686930807</v>
       </c>
     </row>
     <row r="11">
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7999,10 +7999,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -8154,10 +8154,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8236,10 +8236,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8376,7 +8376,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,10 +8534,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,10 +8610,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -8689,16 +8689,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8710,10 +8710,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,10 +8847,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -8865,10 +8865,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8947,10 +8947,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,10 +9084,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -9102,10 +9102,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9184,10 +9184,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9412,10 +9412,10 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,16 +9558,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -9576,10 +9576,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9895,10 +9895,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,10 +10269,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -10287,10 +10287,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10369,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -10524,7 +10524,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10822,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10837,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10907,7 +10907,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,10 +10980,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -10998,10 +10998,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11059,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11074,16 +11074,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -11235,10 +11235,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11317,10 +11317,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11454,13 +11454,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -11472,10 +11472,10 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22570,7 +22570,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>220.0898510449805</v>
@@ -22591,10 +22591,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22646,13 +22646,13 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
@@ -22667,13 +22667,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22728,10 +22728,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>134.8846762812383</v>
@@ -22746,10 +22746,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P4" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -22828,10 +22828,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22886,7 +22886,7 @@
         <v>99.52238</v>
       </c>
       <c r="J6" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>137.841438974359</v>
@@ -22968,7 +22968,7 @@
         <v>126.9954214393961</v>
       </c>
       <c r="K7" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>134.8846762812383</v>
@@ -23044,13 +23044,13 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>230.3462332272727</v>
@@ -23059,16 +23059,16 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23126,10 +23126,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>142.1340339220183</v>
@@ -23141,13 +23141,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23202,10 +23202,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>134.8846762812383</v>
@@ -23281,16 +23281,16 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>229.4130635965909</v>
@@ -23302,10 +23302,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23357,16 +23357,16 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
@@ -23378,13 +23378,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23439,10 +23439,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>134.8846762812383</v>
@@ -23457,10 +23457,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P13" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
@@ -23518,13 +23518,13 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>230.3462332272727</v>
@@ -23539,10 +23539,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
@@ -23594,13 +23594,13 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
@@ -23615,13 +23615,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23676,10 +23676,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>134.8846762812383</v>
@@ -23694,10 +23694,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P16" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
         <v>177.2933913771695</v>
@@ -23755,7 +23755,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>220.0898510449805</v>
@@ -23776,10 +23776,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q17" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23831,10 +23831,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
@@ -23858,7 +23858,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23913,28 +23913,28 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J19" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K19" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L19" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>138.9257839476051</v>
       </c>
       <c r="N19" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
         <v>177.2933913771695</v>
@@ -24004,10 +24004,10 @@
         <v>230.3462332272727</v>
       </c>
       <c r="N20" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>231.2329957552695</v>
@@ -24068,10 +24068,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
@@ -24095,7 +24095,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24150,16 +24150,16 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J22" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K22" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L22" t="n">
         <v>134.8846762812383</v>
       </c>
       <c r="M22" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>127.6855444652332</v>
@@ -24168,10 +24168,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P22" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
         <v>177.2933913771695</v>
@@ -24229,7 +24229,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>220.0898510449805</v>
@@ -24250,10 +24250,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q23" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24305,13 +24305,13 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
@@ -24326,13 +24326,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -24387,28 +24387,28 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J25" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K25" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L25" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>138.9257839476051</v>
       </c>
       <c r="N25" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24466,7 +24466,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>220.0898510449805</v>
@@ -24487,10 +24487,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q26" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -24542,13 +24542,13 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
@@ -24563,13 +24563,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24624,7 +24624,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J28" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K28" t="n">
         <v>129.0132581705354</v>
@@ -24727,7 +24727,7 @@
         <v>222.3056898744495</v>
       </c>
       <c r="R29" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -24779,7 +24779,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
@@ -24806,7 +24806,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24861,10 +24861,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J31" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K31" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L31" t="n">
         <v>134.8846762812383</v>
@@ -24879,10 +24879,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P31" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
         <v>177.2933913771695</v>
@@ -24961,10 +24961,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q32" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -25016,10 +25016,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
@@ -25037,13 +25037,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25098,7 +25098,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J34" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
         <v>129.0132581705354</v>
@@ -25116,7 +25116,7 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P34" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
         <v>151.5050016294458</v>
@@ -25201,7 +25201,7 @@
         <v>222.3056898744495</v>
       </c>
       <c r="R35" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25253,10 +25253,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
@@ -25274,13 +25274,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25335,28 +25335,28 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L37" t="n">
         <v>134.8846762812383</v>
       </c>
       <c r="M37" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
         <v>177.2933913771695</v>
@@ -25414,10 +25414,10 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>235.7664149699872</v>
@@ -25429,7 +25429,7 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O38" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>231.2329957552695</v>
@@ -25438,7 +25438,7 @@
         <v>222.3056898744495</v>
       </c>
       <c r="R38" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -25490,7 +25490,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -25499,7 +25499,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>142.1340339220183</v>
@@ -25511,13 +25511,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25572,10 +25572,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J40" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K40" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L40" t="n">
         <v>134.8846762812383</v>
@@ -25590,10 +25590,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P40" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
         <v>177.2933913771695</v>
@@ -25651,10 +25651,10 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>235.7664149699872</v>
@@ -25666,16 +25666,16 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O41" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25727,10 +25727,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
@@ -25748,13 +25748,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25809,7 +25809,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K43" t="n">
         <v>129.0132581705354</v>
@@ -25827,10 +25827,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P43" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25888,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>220.0898510449805</v>
@@ -25909,10 +25909,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25964,7 +25964,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
@@ -26046,13 +26046,13 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J46" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K46" t="n">
         <v>129.0132581705354</v>
       </c>
       <c r="L46" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>138.9257839476051</v>
@@ -26064,10 +26064,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P46" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
         <v>177.2933913771695</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.175067154690623e-11</v>
+        <v>122359.3215396028</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.175067154690623e-11</v>
+        <v>53319.95376019295</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.175067154690623e-11</v>
+        <v>212493.2825207857</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.175067154690623e-11</v>
+        <v>188270.0335284168</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.175067154690623e-11</v>
+        <v>155670.7583107124</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.175067154690623e-11</v>
+        <v>108451.1725645243</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.175067154690623e-11</v>
+        <v>99035.30031432262</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.175067154690623e-11</v>
+        <v>139443.061481451</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.175067154690623e-11</v>
+        <v>109277.1474692503</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.175067154690623e-11</v>
+        <v>27988.17551495674</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.175067154690623e-11</v>
+        <v>80762.81961155587</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-1.175067154690623e-11</v>
+        <v>75351.6201828278</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-1.175067154690623e-11</v>
+        <v>146532.4524604843</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-1.175067154690623e-11</v>
+        <v>160510.1334243118</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.175067154690623e-11</v>
+        <v>79650.6631962555</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>3446.7414518198</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1501.970528456141</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>5985.726268191152</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5303.381226152587</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4385.091783400349</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3054.96260745139</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2789.72676941754</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3927.973562857777</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3078.229506176066</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>788.3993102804723</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2275.009003142421</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2122.580850220502</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4127.674717196741</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>4521.412209135546</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2243.680653415649</v>
       </c>
     </row>
     <row r="3">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>5170.112177729699</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>2252.95579268421</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>8978.589402286725</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>7955.07183922888</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>6577.637675100524</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4582.443911177084</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4184.590154126309</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>5891.960344286665</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>4617.344259264099</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1182.598965420708</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>3412.51350471363</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>3183.871275330753</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>6191.512075795111</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>6782.118313703319</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>3365.520980123474</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660707</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660708</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660708</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-20526.04424660708</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-20526.04424660708</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-20526.04424660708</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>-20526.04424660708</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-20526.04424660709</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-20526.04424660709</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-20526.04424660709</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>-20526.04424660708</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>-20526.04424660709</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>-20526.04424660708</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-20526.04424660708</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>-20526.04424660708</v>
       </c>
     </row>
   </sheetData>
